--- a/src/test/resources/DataFile/DataFile.xlsx
+++ b/src/test/resources/DataFile/DataFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amreennaziasyed/eclipse-workspace/DSALGO/RestAssuredWithFiloAPI/src/test/resources/DataFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC0174B-6852-5745-B7F9-958DFCEBCE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1296A094-F240-9748-9D0E-415A0D6B71C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="288">
   <si>
     <t>Scenario</t>
   </si>
@@ -887,10 +887,13 @@
     <t>dieticianIdForPatient</t>
   </si>
   <si>
-    <t>di2eticiandsd0221xyz7892@gmail.com</t>
-  </si>
-  <si>
-    <t>di2etician0983@gmail.com</t>
+    <t>dieticianToken</t>
+  </si>
+  <si>
+    <t>di2eticiand11002@gmail.com</t>
+  </si>
+  <si>
+    <t>di2etician102@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -2803,9 +2806,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P965"/>
+  <dimension ref="A1:Q965"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
@@ -2830,7 +2833,7 @@
     <col min="16" max="16" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13.5" customHeight="1">
+    <row r="1" spans="1:17" ht="13.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2876,9 +2879,14 @@
       <c r="O1" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="P1" s="5"/>
-    </row>
-    <row r="2" spans="1:16" ht="13.5" customHeight="1">
+      <c r="P1" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="13.5" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>239</v>
       </c>
@@ -2924,7 +2932,7 @@
       </c>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" spans="1:16" ht="13.5" customHeight="1">
+    <row r="3" spans="1:17" ht="13.5" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>240</v>
       </c>
@@ -2970,7 +2978,7 @@
       </c>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="1:16" ht="13.5" customHeight="1">
+    <row r="4" spans="1:17" ht="13.5" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>241</v>
       </c>
@@ -3016,7 +3024,7 @@
       </c>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="1:16" ht="13.5" customHeight="1">
+    <row r="5" spans="1:17" ht="13.5" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>242</v>
       </c>
@@ -3062,7 +3070,7 @@
       </c>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" ht="13.5" customHeight="1">
+    <row r="6" spans="1:17" ht="13.5" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>243</v>
       </c>
@@ -3108,7 +3116,7 @@
       </c>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="13.5" customHeight="1">
+    <row r="7" spans="1:17" ht="13.5" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>244</v>
       </c>
@@ -3154,7 +3162,7 @@
       </c>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="1:16" ht="13.5" customHeight="1">
+    <row r="8" spans="1:17" ht="13.5" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -3202,7 +3210,7 @@
       </c>
       <c r="P8" s="6"/>
     </row>
-    <row r="9" spans="1:16" ht="13.5" customHeight="1">
+    <row r="9" spans="1:17" ht="13.5" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>258</v>
       </c>
@@ -3248,7 +3256,7 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="1:16" ht="13.5" customHeight="1">
+    <row r="10" spans="1:17" ht="13.5" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>281</v>
       </c>
@@ -3265,7 +3273,7 @@
         <v>250</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>277</v>
@@ -3296,7 +3304,7 @@
       </c>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="1:16" ht="13.5" customHeight="1">
+    <row r="11" spans="1:17" ht="13.5" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>280</v>
       </c>
@@ -3313,7 +3321,7 @@
         <v>283</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>277</v>
@@ -3344,8 +3352,10 @@
       </c>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A12" s="6"/>
+    <row r="12" spans="1:17" ht="13.5" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>285</v>
+      </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -3357,12 +3367,23 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-    </row>
-    <row r="13" spans="1:16" ht="13.5" customHeight="1">
+      <c r="M12" s="6">
+        <v>200</v>
+      </c>
+      <c r="N12" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="13.5" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -3380,7 +3401,7 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="1:16" ht="13.5" customHeight="1">
+    <row r="14" spans="1:17" ht="13.5" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -3398,7 +3419,7 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="1:16" ht="13.5" customHeight="1">
+    <row r="15" spans="1:17" ht="13.5" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -3416,7 +3437,7 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" spans="1:16" ht="13.5" customHeight="1">
+    <row r="16" spans="1:17" ht="13.5" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>

--- a/src/test/resources/DataFile/DataFile.xlsx
+++ b/src/test/resources/DataFile/DataFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amreennaziasyed/eclipse-workspace/DSALGO/RestAssuredWithFiloAPI/src/test/resources/DataFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1296A094-F240-9748-9D0E-415A0D6B71C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D268E3-2FA4-DF45-863F-06272BEC695A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -890,10 +890,10 @@
     <t>dieticianToken</t>
   </si>
   <si>
-    <t>di2eticiand11002@gmail.com</t>
-  </si>
-  <si>
-    <t>di2etician102@gmail.com</t>
+    <t>di2eticiand1fefe1002@gmail.com</t>
+  </si>
+  <si>
+    <t>di2etician00909@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -2808,7 +2808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q965"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
